--- a/biology/Histoire de la zoologie et de la botanique/Charles-Lucien_Bonaparte/Charles-Lucien_Bonaparte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles-Lucien_Bonaparte/Charles-Lucien_Bonaparte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Lucien Bonaparte est un homme politique et un ornithologue français, né le 24 mai 1803 à Paris et mort le 29 avril 1857 dans cette même ville. Fils de Lucien Bonaparte, il est donc l'un des neveux de Napoléon Bonaparte.
 Prince français en 1815[réf. nécessaire] à la suite de la réconciliation de Lucien et de son frère, il hérite des titres pontificaux de son père à la mort de ce dernier, devenant ainsi le second prince romain de Canino, de Musignano et Bonaparte en 1840, et prince Bonaparte en vertu du statut de la famille impériale adopté par Napoléon III.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Lucien Bonaparte est le fils aîné du mariage en secondes noces de Lucien Bonaparte (1775-1840), frère de l'Empereur, et d'Alexandrine Jacob de Bleschamp (1778-1855).
 En 1804, sa famille se rendit à Rome pour se mettre sous la protection du pape Pie VII. En 1810, à la suite d'une rupture entre le pape et Napoléon, il tente de rallier les États-Unis mais il est capturé avec sa famille par la Royal Navy en Méditerranée et retenu au Royaume-Uni jusqu’à la chute de Napoléon en 1814. Il retourne alors dans les États pontificaux.
-Après son mariage en 1822, il emménage aux États-Unis avec le père de son épouse (et cousine) Zénaïde Bonaparte, Joseph Bonaparte, pour quelques années et s’installe à Philadelphie en 1823 avec une seconde résidence à Bordentown, dans le New Jersey. Son premier fils est né à Philadelphie et ses autres enfants à Rome[1].
+Après son mariage en 1822, il emménage aux États-Unis avec le père de son épouse (et cousine) Zénaïde Bonaparte, Joseph Bonaparte, pour quelques années et s’installe à Philadelphie en 1823 avec une seconde résidence à Bordentown, dans le New Jersey. Son premier fils est né à Philadelphie et ses autres enfants à Rome.
 En 1824, Bonaparte a tenté d'obtenir que John James Audubon, alors inconnu, soit accepté par l'Académie des sciences naturelles, mais cela a été contesté par l'ornithologue George Ord.
-À la fin de 1826, Bonaparte et sa famille retournent en Europe. Il se rend en Allemagne, où il rencontre Philipp Jakob Cretzschmar, et en Angleterre où il a rencontré John Edward Gray au British Museum et a renouvelé ses relations avec Audubon. En 1828, la famille s'installe à Rome. En Italie, il est à l'origine de plusieurs congrès scientifiques, donne des conférences et écrit de nombreux articles sur l'ornithologie américaine et européenne ainsi que sur d'autres branches de l'histoire naturelle. Il est élu membre de l'American Antiquarian Society en 1845[2].
+À la fin de 1826, Bonaparte et sa famille retournent en Europe. Il se rend en Allemagne, où il rencontre Philipp Jakob Cretzschmar, et en Angleterre où il a rencontré John Edward Gray au British Museum et a renouvelé ses relations avec Audubon. En 1828, la famille s'installe à Rome. En Italie, il est à l'origine de plusieurs congrès scientifiques, donne des conférences et écrit de nombreux articles sur l'ornithologie américaine et européenne ainsi que sur d'autres branches de l'histoire naturelle. Il est élu membre de l'American Antiquarian Society en 1845.
 Ses idées démocratiques, sans doute renforcées par son expérience à Philadelphie, lui firent prendre une part active dans l'insurrection romaine de 1847-1849. En 1849, il est élu à l'Assemblée romaine et participe à la création de la République romaine. Selon Jasper Ridley, lorsque l'Assemblée est convoquée pour la première fois : « Lorsque le nom de Carlo Bonaparte, qui était un membre de Viterbo, a été appelé, il a répondu à l'appel en appelant “Vive la République” ! » (Viva la Repubblica !). Il devint le vice-président du conseil législatif et participe à la défense de Rome contre les quarante mille soldats français envoyés par son cousin, Louis-Napoléon. Il quitta Rome après que l'armée républicaine eut été défaite en juillet 1849. Il débarque à Marseille, mais il doit quitter le pays sur ordre de Louis-Napoléon. Il part en exil à Leyde puis, en 1850, il est autorisé à rentrer en France. Il s'installe alors à Paris pour le reste de sa vie. Il réaffirme ses convictions politiques en 1850 en nommant un oiseau Paradisier républicain en l'honneur de l'idée républicaine.
 En 1854, il devient directeur du Jardin des plantes de Paris. En 1855, il est nommé membre étranger de l'Académie royale des sciences de Suède.
 </t>
@@ -549,13 +563,15 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le 29 juin 1822, il épousa à Bruxelles sa cousine Zénaïde Bonaparte, fille de Joseph Bonaparte. Le couple eut quatre fils et huit filles :
 Joseph-Lucien, prince Bonaparte, né à Philadelphie le 12 février 1824 et mort à Rome le 2 septembre 1865, sans alliance ni descendance ;
 Alexandrine, née à Philadelphie le 6 juillet 1826 et morte à Livourne en juin 1828 ;
 Lucien-Louis, né à Rome le 15 novembre 1828 et mort à Rome le 19 novembre 1895, cardinal de l'Église catholique romaine ;
-Julie, née à Rome le 6 juin 1830 et morte à Rome le 28 octobre 1900, princesse Bonaparte et altesse (1853), mariée à Alessandro del Gallo, marquis de Roccagiovine[3] ;
+Julie, née à Rome le 6 juin 1830 et morte à Rome le 28 octobre 1900, princesse Bonaparte et altesse (1853), mariée à Alessandro del Gallo, marquis de Roccagiovine ;
 Charlotte, née à Rome le 4 mars 1832 et morte à Rome le 10 août 1901, mariée en 1848 à Pietro, comte Primoli di Foglia (1821-1883), officier dans la marine pontificale, parents de Joseph Primoli ;
 Léonie, née à Rome le 18 septembre 1833 et morte à Ariccia le 14 septembre 1839 ;
 Marie-Désirée, née à Rome le 18 mars 1835 et morte à Spolète le 28 août 1890, alliée à Rome le 2 mars 1851 à Paolo, comte Campello della Spina (1829-1917), propriétaire, auteur d'ouvrages historiques ;
@@ -591,12 +607,49 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est à Rome, que le jeune Charles-Lucien Bonaparte découvrit l'histoire naturelle et particulièrement l'ornithologie.
-Parti s'installer aux États-Unis où vivait déjà son père, il participa activement entre 1823 à 1826 à la vie de la communauté scientifique de Philadelphie où il publia son premier article en 1824. Il ne cessa dès lors d'étudier les oiseaux et acquit une réputation internationale. Il devint correspondant de l'Institut de France. En 1843, il isole par précipitation alcoolique l'échidnine ou vipérine[4] du venin de vipère et montre que cette substance reproduit tous les effets hématologiques du venin complet[5].
-Œuvres et publications
-Il publia, de 1825 à 1833 les quatre volumes de son American Ornithology (Philadelphie, 1825)[6] et Ornithology of the North America (1826). Lors de son séjour à Rome, il avait commencé une étude des vertébrés d'Italie. Il la termina et la publia de 1832 à 1841 sous le titre d‘Iconografia della Fauna Italica.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est à Rome, que le jeune Charles-Lucien Bonaparte découvrit l'histoire naturelle et particulièrement l'ornithologie.
+Parti s'installer aux États-Unis où vivait déjà son père, il participa activement entre 1823 à 1826 à la vie de la communauté scientifique de Philadelphie où il publia son premier article en 1824. Il ne cessa dès lors d'étudier les oiseaux et acquit une réputation internationale. Il devint correspondant de l'Institut de France. En 1843, il isole par précipitation alcoolique l'échidnine ou vipérine du venin de vipère et montre que cette substance reproduit tous les effets hématologiques du venin complet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles-Lucien_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles-Lucien_Bonaparte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres et publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il publia, de 1825 à 1833 les quatre volumes de son American Ornithology (Philadelphie, 1825) et Ornithology of the North America (1826). Lors de son séjour à Rome, il avait commencé une étude des vertébrés d'Italie. Il la termina et la publia de 1832 à 1841 sous le titre d‘Iconografia della Fauna Italica.
 Charles-Lucien Bonaparte publia de nombreux autres ouvrages dont certains écrits en italien. On peut notamment citer :
 Ornithologie comparée de Rome et de Philadelphie, Rome, 1828 ;
 Classification des animaux vertébrés, 1831 ;
@@ -608,7 +661,7 @@
 Tableau des oiseaux-mouches (1854)
 Coup d'œil sur l'ordre des pigeons, imp. Mallet-Bachelier (Paris), 1855, 59 p. (texte intégral) ;
 Catalogue des oiseaux d'Europe (Paris, 1856) ;
-Ornithologie fossile (1858)[7].
+Ornithologie fossile (1858).
 Mémoires (New York, 1836).
 Avec M. de Pouancé, il préparait aussi un catalogue descriptif des pigeons et un autre des perroquets qui furent publiés après sa mort.
 Charles-Lucien Bonaparte publia également en anglais :
@@ -618,38 +671,75 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Charles-Lucien_Bonaparte</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charles-Lucien_Bonaparte</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonaparte découvrit et nomma de nombreuses espèces. Il créa notamment l'ordre des monotrèmes.
 Oiseaux :
 Zostérops des Philippines et Zostérops montagnard en 1850
 Colombe de Verreaux en 1855
-Taxons dédiés
-Huit espèces d'oiseaux portent en français le nom de Bonaparte :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles-Lucien_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles-Lucien_Bonaparte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons dédiés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huit espèces d'oiseaux portent en français le nom de Bonaparte :
 Barbican à gorge grise (Gymnobucco bonapartei) ;
 Bécasseau de Bonaparte ou Bécasseau à croupion blanc (Calidris fuscicollis) ;
 Caïque de Bonaparte (Pionopsitta pyrilia) ;
@@ -664,31 +754,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Charles-Lucien_Bonaparte</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charles-Lucien_Bonaparte</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Une médaille posthume à l'effigie de Charles-Lucien Bonaparte a été réalisée par les graveurs Auguste Dumont et Hubert Ponscarme. Un exemplaire en est conservé au musée Carnavalet (ND 191).
 </t>
